--- a/biology/Médecine/Ostéocyte/Ostéocyte.xlsx
+++ b/biology/Médecine/Ostéocyte/Ostéocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ocyte</t>
+          <t>Ostéocyte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéocyte est la cellule du tissu osseux, elle est issue de l'ostéoblaste. 
 Il se situe dans le tissu osseux à la différence de l'ostéoblaste, situé dans la matrice minéralisée. Il est logé dans des cavités creusées dans la matrice : l'ostéoplaste. C'est une cellule fusiforme, aplatie, au noyau condensé et central. Elle contient peu de cytoplasme, mais il est légèrement acidophile. Son contour suit celui de l'ostéoplaste. Elle possède des prolongements qui lui permettent de communiquer avec d'autres ostéocytes grâce à des jonctions communicantes. Elle est moins active que l'ostéoblaste mais participe au maintien de la matrice extracellulaire (ici la matrice osseuse) en élaborant ses constituants (capable d'ostéosynthèse), ou en la détruisant : c'est la résorption périosteocytaire, un des effets de la parathormone, hormone hypercalcémiante.
